--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268EC46-D732-433C-AE09-4EAC40C060E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="-7240" windowWidth="41140" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="55">
   <si>
     <t>Team</t>
   </si>
@@ -169,12 +181,27 @@
   </si>
   <si>
     <t>Investigation</t>
+  </si>
+  <si>
+    <t>Munashe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aubrey </t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Connor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -562,127 +589,7 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,6 +1032,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1449,30 +1364,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.83203125" style="2"/>
-    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.83203125" style="2"/>
-    <col min="29" max="32" width="10.83203125" style="3"/>
-    <col min="33" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="20" width="10.796875" style="2"/>
+    <col min="21" max="21" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.796875" style="2"/>
+    <col min="29" max="32" width="10.796875" style="3"/>
+    <col min="33" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16" thickBot="1">
+    <row r="4" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16" thickTop="1">
+    <row r="5" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,10 +1442,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1486,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16" thickBot="1">
+    <row r="11" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1622,12 +1537,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16" thickTop="1">
+    <row r="12" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1571,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -1668,10 +1583,10 @@
       <c r="K17" s="24"/>
       <c r="L17" s="28">
         <f>SUM(E35:L37)</f>
-        <v>162.79999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
@@ -1679,7 +1594,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="27">
         <f>SUM(E35:H37)</f>
-        <v>81.400000000000006</v>
+        <v>101.75</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>45</v>
@@ -1688,7 +1603,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="27">
         <f>SUM(I35:L37)</f>
-        <v>81.400000000000006</v>
+        <v>101.75</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>47</v>
@@ -1703,7 +1618,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25">
         <f>SUM(M35:V37)</f>
-        <v>162.79999999999998</v>
+        <v>203.5</v>
       </c>
       <c r="W18" s="22" t="s">
         <v>48</v>
@@ -1712,10 +1627,10 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="26">
         <f>SUM(W35:Z37)</f>
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32">
+        <v>101.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1">
+    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="30" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1787,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="2:32" s="31" customFormat="1">
+    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
         <v>29</v>
@@ -1922,7 +1837,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
@@ -2030,9 +1945,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16" thickTop="1">
+    <row r="24" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>12</v>
@@ -2117,9 +2035,12 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="25" spans="2:32">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>12</v>
@@ -2204,9 +2125,12 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="26" spans="2:32">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>12</v>
@@ -2291,9 +2215,12 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
@@ -2378,79 +2305,82 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="17" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101.75</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2462,10 +2392,10 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32">
+        <v>101.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2552,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16" thickBot="1">
+    <row r="33" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2900,10 +2830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16" thickTop="1">
+    <row r="34" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2913,39 +2843,39 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ref="E35:Z35" si="6">COUNTIFS(E$24:E$34,$I9) * $F$9</f>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2957,50 +2887,50 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1">
+        <v>25.4375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -3099,7 +3029,7 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>407</v>
+        <v>508.75</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
@@ -3111,13 +3041,13 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>407</v>
+        <v>508.75</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3212,23 +3142,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3237,39 +3167,39 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:Z42" si="9">SUM(E35:E37)</f>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3281,47 +3211,47 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3330,14 +3260,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>407.00000000000011</v>
+        <v>508.75</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3346,47 +3276,47 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3395,19 +3325,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>406.99999999999994</v>
+        <v>508.75</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="45">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>406.99999999999994</v>
+        <v>508.75</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>
@@ -3415,216 +3345,216 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AF34:AF35 A32:B32 D32 AA32:XFD32">
-    <cfRule type="cellIs" dxfId="55" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="132" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="133" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="133" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="134" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD20">
-    <cfRule type="cellIs" dxfId="52" priority="130" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="130" operator="between">
       <formula>$K$10</formula>
       <formula>$K$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="131" operator="between">
       <formula>$K$9</formula>
       <formula>$K$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:Z37">
-    <cfRule type="cellIs" dxfId="50" priority="127" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="127" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="128" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="129" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 C25:C32 AA24:XFD24">
-    <cfRule type="cellIs" dxfId="47" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="124" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="125" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="126" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 D25 AA25:XFD25">
-    <cfRule type="cellIs" dxfId="44" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="121" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="122" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="123" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26 D26 AA26:XFD26">
-    <cfRule type="cellIs" dxfId="41" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="118" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="119" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="120" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 D31 AA31:XFD31">
-    <cfRule type="cellIs" dxfId="38" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="100" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="101" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="102" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 D27 AA27:XFD27">
-    <cfRule type="cellIs" dxfId="35" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="112" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="113" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="114" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 D28 AA28:XFD28">
-    <cfRule type="cellIs" dxfId="32" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="109" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="110" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="111" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 D29 AA29:XFD29">
-    <cfRule type="cellIs" dxfId="29" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="106" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="107" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="108" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30 D30 AA30:XFD30">
-    <cfRule type="cellIs" dxfId="26" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="103" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="104" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="105" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33 D33 AA33:XFD33">
-    <cfRule type="cellIs" dxfId="23" priority="97" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="97" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="98" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="99" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="20" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="94" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="95" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="96" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z27">
-    <cfRule type="cellIs" dxfId="17" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="82" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="83" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="84" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:Z33 E24:O27">
-    <cfRule type="cellIs" dxfId="8" priority="43" operator="between">
+  <conditionalFormatting sqref="E24:O27 E28:Z33">
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Documents\GitHub\LiveProjectsTemplate\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268EC46-D732-433C-AE09-4EAC40C060E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218DE462-D428-4121-B872-598914009F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,27 +1367,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.796875" style="2"/>
-    <col min="21" max="21" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.796875" style="2"/>
-    <col min="29" max="32" width="10.796875" style="3"/>
-    <col min="33" max="16384" width="10.796875" style="2"/>
+    <col min="5" max="20" width="10.75" style="2"/>
+    <col min="21" max="21" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.75" style="2"/>
+    <col min="29" max="32" width="10.75" style="3"/>
+    <col min="33" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1442,10 +1442,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,12 +1537,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="K17" s="24"/>
       <c r="L17" s="28">
         <f>SUM(E35:L37)</f>
-        <v>203.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+        <v>162.79999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="27">
         <f>SUM(E35:H37)</f>
-        <v>101.75</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>45</v>
@@ -1603,7 +1603,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="27">
         <f>SUM(I35:L37)</f>
-        <v>101.75</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>47</v>
@@ -1618,7 +1618,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25">
         <f>SUM(M35:V37)</f>
-        <v>203.5</v>
+        <v>162.79999999999998</v>
       </c>
       <c r="W18" s="22" t="s">
         <v>48</v>
@@ -1627,10 +1627,10 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="26">
         <f>SUM(W35:Z37)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
         <v>29</v>
@@ -1837,16 +1837,16 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="33">
-        <f t="shared" ref="E23:Z23" si="1">$G$15 +($C$2  * (E$21-1))</f>
+        <f>$G$15 +($C$2  * (E$21-1))</f>
         <v>43759</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E23:Z23" si="1">$G$15 +($C$2  * (F$21-1))</f>
         <v>43766</v>
       </c>
       <c r="G23" s="33">
@@ -1945,7 +1945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2313,31 +2313,31 @@
         <v>54</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N28" s="16" t="s">
         <v>31</v>
@@ -2346,41 +2346,41 @@
         <v>31</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2392,10 +2392,10 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2843,39 +2843,39 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ref="E35:Z35" si="6">COUNTIFS(E$24:E$34,$I9) * $F$9</f>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2887,50 +2887,50 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>508.75</v>
+        <v>407</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
@@ -3041,13 +3041,13 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>508.75</v>
+        <v>407</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3142,23 +3142,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3167,39 +3167,39 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:Z42" si="9">SUM(E35:E37)</f>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3211,47 +3211,47 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3260,14 +3260,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>508.75</v>
+        <v>407.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3276,47 +3276,47 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3325,19 +3325,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>508.75</v>
+        <v>406.99999999999994</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>508.75</v>
+        <v>406.99999999999994</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268EC46-D732-433C-AE09-4EAC40C060E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D899BDC-D4EF-4961-AD7C-61DDC0637460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -193,9 +195,6 @@
   </si>
   <si>
     <t>Hamza</t>
-  </si>
-  <si>
-    <t>Connor</t>
   </si>
 </sst>
 </file>
@@ -273,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -332,17 +331,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FF008000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF008000"/>
-      </right>
       <top style="thick">
         <color rgb="FF008000"/>
       </top>
@@ -456,7 +444,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -503,9 +491,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -1367,27 +1352,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="Z27" sqref="S24:Z27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.796875" style="2"/>
-    <col min="21" max="21" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.796875" style="2"/>
-    <col min="29" max="32" width="10.796875" style="3"/>
-    <col min="33" max="16384" width="10.796875" style="2"/>
+    <col min="5" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="32" width="10.83203125" style="3"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1442,10 +1427,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1471,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,12 +1522,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,66 +1556,66 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E17" s="24" t="s">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="E17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="28">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="27">
         <f>SUM(E35:L37)</f>
-        <v>203.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E18" s="23" t="s">
+        <v>162.79999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="E18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="27">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="26">
         <f>SUM(E35:H37)</f>
-        <v>101.75</v>
-      </c>
-      <c r="I18" s="23" t="s">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="27">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="26">
         <f>SUM(I35:L37)</f>
-        <v>101.75</v>
-      </c>
-      <c r="M18" s="21" t="s">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="25">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>203.5</v>
-      </c>
-      <c r="W18" s="22" t="s">
+        <v>187.8</v>
+      </c>
+      <c r="W18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="26">
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="25">
         <f>SUM(W35:Z37)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1709,243 +1694,243 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="2:32" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>1</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>2</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>3</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>4</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>5</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>6</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>7</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <v>8</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <v>9</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="28">
         <v>10</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="28">
         <v>11</v>
       </c>
-      <c r="P21" s="29">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="29">
+      <c r="P21" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="28">
         <v>13</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="28">
         <v>14</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="28">
         <v>15</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="28">
         <v>16</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="28">
         <v>17</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="28">
         <v>18</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21" s="28">
         <v>19</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="28">
         <v>20</v>
       </c>
-      <c r="Y21" s="29">
+      <c r="Y21" s="28">
         <v>21</v>
       </c>
-      <c r="Z21" s="29">
+      <c r="Z21" s="28">
         <v>22</v>
       </c>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-    </row>
-    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+    </row>
+    <row r="22" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f>(+E21 + 0.5)/2</f>
         <v>0.75</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <f>(+G21 + 0.5)/2</f>
         <v>1.75</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <f t="shared" ref="I22:Y22" si="0">(+I21 + 0.5)/2</f>
         <v>2.75</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="31">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="31">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="31">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="31">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="31">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="31">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="W22" s="32">
+      <c r="W22" s="31">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="Y22" s="32">
+      <c r="Y22" s="31">
         <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="30" t="s">
+    <row r="23" spans="2:32" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" ref="E23:Z23" si="1">$G$15 +($C$2  * (E$21-1))</f>
         <v>43759</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <f t="shared" si="1"/>
         <v>43766</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <f t="shared" si="1"/>
         <v>43773</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <f t="shared" si="1"/>
         <v>43780</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" si="1"/>
         <v>43787</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <f t="shared" si="1"/>
         <v>43794</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <f t="shared" si="1"/>
         <v>43801</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="32">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <f t="shared" si="1"/>
         <v>43815</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="32">
         <f t="shared" si="1"/>
         <v>43822</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <f t="shared" si="1"/>
         <v>43829</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="32">
         <f t="shared" si="1"/>
         <v>43836</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="32">
         <f t="shared" si="1"/>
         <v>43843</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="32">
         <f t="shared" si="1"/>
         <v>43850</v>
       </c>
-      <c r="S23" s="33">
+      <c r="S23" s="32">
         <f t="shared" si="1"/>
         <v>43857</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="32">
         <f t="shared" si="1"/>
         <v>43864</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="32">
         <f t="shared" si="1"/>
         <v>43871</v>
       </c>
-      <c r="V23" s="33">
+      <c r="V23" s="32">
         <f t="shared" si="1"/>
         <v>43878</v>
       </c>
-      <c r="W23" s="33">
+      <c r="W23" s="32">
         <f t="shared" si="1"/>
         <v>43885</v>
       </c>
-      <c r="X23" s="33">
+      <c r="X23" s="32">
         <f t="shared" si="1"/>
         <v>43892</v>
       </c>
-      <c r="Y23" s="33">
+      <c r="Y23" s="32">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="Z23" s="33">
+      <c r="Z23" s="32">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="AC23" s="32" t="str">
+      <c r="AC23" s="31" t="str">
         <f>$I$9</f>
         <v>Minimum</v>
       </c>
-      <c r="AD23" s="32" t="str">
+      <c r="AD23" s="31" t="str">
         <f>$I$10</f>
         <v>Expected</v>
       </c>
-      <c r="AE23" s="32" t="str">
+      <c r="AE23" s="31" t="str">
         <f>$I$11</f>
         <v>Stretch</v>
       </c>
-      <c r="AF23" s="32" t="s">
+      <c r="AF23" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1989,10 +1974,10 @@
         <v>12</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>12</v>
@@ -2015,16 +2000,16 @@
       <c r="Y24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Z24" s="15" t="s">
+      <c r="Z24" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>101.75</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>0</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -2032,17 +2017,17 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+        <v>111.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2079,42 +2064,42 @@
         <v>12</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -2122,17 +2107,17 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+        <v>111.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -2174,28 +2159,28 @@
       <c r="R26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="17" t="s">
+      <c r="S26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AC26" s="3">
@@ -2215,14 +2200,14 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -2259,42 +2244,42 @@
         <v>12</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="17" t="s">
+      <c r="S27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>96.662500000000009</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2302,85 +2287,82 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+        <v>106.75000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>12</v>
+      <c r="E28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2392,14 +2374,14 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -2462,7 +2444,7 @@
       <c r="Y29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="AC29" s="3">
@@ -2482,11 +2464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2549,7 +2531,7 @@
       <c r="Y30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z30" s="16" t="s">
         <v>31</v>
       </c>
       <c r="AC30" s="3">
@@ -2569,11 +2551,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -2636,7 +2618,7 @@
       <c r="Y31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="AC31" s="3">
@@ -2656,11 +2638,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2723,7 +2705,7 @@
       <c r="Y32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="AC32" s="3">
@@ -2743,74 +2725,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="20" t="s">
+      <c r="E33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="AC33" s="3">
@@ -2830,10 +2812,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2843,39 +2825,39 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ref="E35:Z35" si="6">COUNTIFS(E$24:E$34,$I9) * $F$9</f>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2887,50 +2869,50 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -2986,11 +2968,11 @@
       </c>
       <c r="Q36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
@@ -3029,11 +3011,11 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>508.75</v>
+        <v>381.5625</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>0</v>
+        <v>50.4375</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
@@ -3041,13 +3023,13 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>508.75</v>
+        <v>432</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3142,23 +3124,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3167,39 +3149,39 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:Z42" si="9">SUM(E35:E37)</f>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3211,47 +3193,47 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>35.35</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>30.35</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3260,14 +3242,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>508.75</v>
+        <v>432.00000000000017</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3276,47 +3258,47 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>65.7</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3325,19 +3307,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>508.75</v>
+        <v>431.99999999999994</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>508.75</v>
+        <v>431.99999999999994</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D899BDC-D4EF-4961-AD7C-61DDC0637460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7762CC5-DB2A-4593-957B-87E0BFC0DF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="Z27" sqref="S24:Z27"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1603,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>187.8</v>
+        <v>177.8</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>48</v>
@@ -1974,10 +1974,10 @@
         <v>12</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>12</v>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>91.575000000000003</v>
+        <v>101.75</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>111.75</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2064,16 +2064,16 @@
         <v>12</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="T25" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="U25" s="14" t="s">
         <v>12</v>
@@ -2244,16 +2244,16 @@
         <v>12</v>
       </c>
       <c r="Q27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="U27" s="14" t="s">
         <v>12</v>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>5.0875000000000004</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>10.175000000000001</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
@@ -2968,19 +2968,19 @@
       </c>
       <c r="Q36" s="3">
         <f t="shared" si="7"/>
-        <v>30.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="7"/>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>381.5625</v>
+        <v>391.73750000000001</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>50.4375</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
@@ -3197,19 +3197,19 @@
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>35.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>30.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.35</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>30.35</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
@@ -3242,7 +3242,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>432.00000000000017</v>
+        <v>422.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>65.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>55.7</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
@@ -3307,7 +3307,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>431.99999999999994</v>
+        <v>421.99999999999994</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>431.99999999999994</v>
+        <v>421.99999999999994</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7762CC5-DB2A-4593-957B-87E0BFC0DF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B817D-52D6-4912-98F1-99C3A5314527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1603,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>177.8</v>
+        <v>182.79999999999998</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>48</v>
@@ -1983,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U24" s="14" t="s">
         <v>12</v>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>101.75</v>
+        <v>96.662500000000009</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>101.75</v>
+        <v>106.75000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T25" s="14" t="s">
         <v>3</v>
@@ -2095,11 +2095,11 @@
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>91.575000000000003</v>
+        <v>96.662500000000009</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>20.175000000000001</v>
+        <v>10.0875</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>111.75</v>
+        <v>106.75000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2163,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U26" s="14" t="s">
         <v>12</v>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>96.662500000000009</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.0875</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
+        <v>106.75000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2881,11 +2881,11 @@
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>10.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
@@ -2976,11 +2976,11 @@
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="7"/>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>391.73750000000001</v>
+        <v>386.65000000000003</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>30.262500000000003</v>
+        <v>40.35</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>422</v>
+        <v>427.00000000000006</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
@@ -3205,11 +3205,11 @@
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>25.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>30.35</v>
+        <v>40.35</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
@@ -3242,7 +3242,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>422.00000000000011</v>
+        <v>427.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>55.7</v>
+        <v>60.7</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
@@ -3307,7 +3307,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>421.99999999999994</v>
+        <v>426.99999999999994</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>421.99999999999994</v>
+        <v>426.99999999999994</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aubrey\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B817D-52D6-4912-98F1-99C3A5314527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA942A14-3508-428F-843A-55BB6FA501B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1352,27 +1350,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.83203125" style="2"/>
-    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.83203125" style="2"/>
-    <col min="29" max="32" width="10.83203125" style="3"/>
-    <col min="33" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="20" width="10.875" style="2"/>
+    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.875" style="2"/>
+    <col min="29" max="32" width="10.875" style="3"/>
+    <col min="33" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,10 +1425,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1469,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1522,12 +1520,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E17" s="23" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>162.79999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E18" s="22" t="s">
         <v>44</v>
       </c>
@@ -1603,7 +1601,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>182.79999999999998</v>
+        <v>202.8</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>48</v>
@@ -1615,7 +1613,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:32" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="29" t="s">
         <v>18</v>
       </c>
@@ -1772,7 +1770,7 @@
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
     </row>
-    <row r="22" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="31" t="s">
         <v>29</v>
@@ -1822,7 +1820,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:32" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="29" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1974,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R24" s="14" t="s">
         <v>12</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T24" s="14" t="s">
         <v>3</v>
@@ -2005,11 +2003,11 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>96.662500000000009</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>10.0875</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -2017,10 +2015,10 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>106.75000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>116.75000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2064,13 +2062,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T25" s="14" t="s">
         <v>3</v>
@@ -2095,11 +2093,11 @@
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -2107,10 +2105,10 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>116.75000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U26" s="14" t="s">
         <v>12</v>
@@ -2185,11 +2183,11 @@
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>101.75</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
@@ -2197,10 +2195,10 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+        <v>101.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T27" s="14" t="s">
         <v>3</v>
@@ -2275,11 +2273,11 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2287,10 +2285,10 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
+        <v>111.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2464,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2812,10 +2810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2873,7 +2871,7 @@
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
@@ -2881,11 +2879,11 @@
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
@@ -2912,7 +2910,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -2968,7 +2966,7 @@
       </c>
       <c r="Q36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" si="7"/>
@@ -2976,11 +2974,11 @@
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="7"/>
-        <v>40.35</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="7"/>
@@ -3011,11 +3009,11 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>386.65000000000003</v>
+        <v>366.3</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>40.35</v>
+        <v>80.7</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
@@ -3023,13 +3021,13 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>427.00000000000006</v>
+        <v>447</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3124,23 +3122,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3197,7 +3195,7 @@
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>30.35</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
@@ -3205,11 +3203,11 @@
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>35.35</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>40.35</v>
+        <v>35.35</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
@@ -3242,14 +3240,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>427.00000000000011</v>
+        <v>447.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3282,11 +3280,11 @@
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.7</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>60.7</v>
+        <v>70.7</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
@@ -3307,19 +3305,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>426.99999999999994</v>
+        <v>446.99999999999994</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>426.99999999999994</v>
+        <v>446.99999999999994</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B817D-52D6-4912-98F1-99C3A5314527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658DC55-84F1-4034-A210-8A02150D2908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1603,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>182.79999999999998</v>
+        <v>257.8</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>48</v>
@@ -1612,7 +1612,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="25">
         <f>SUM(W35:Z37)</f>
-        <v>81.400000000000006</v>
+        <v>161.4</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.35">
@@ -1980,44 +1980,44 @@
         <v>12</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>96.662500000000009</v>
+        <v>61.050000000000004</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>10.0875</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>106.75000000000001</v>
+        <v>146.75</v>
       </c>
     </row>
     <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2070,44 +2070,44 @@
         <v>12</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T25" s="14" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>61.050000000000004</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
+        <v>146.75</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2166,38 +2166,38 @@
         <v>3</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>66.137500000000003</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2250,44 +2250,44 @@
         <v>12</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T27" s="14" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>61.050000000000004</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>10.0875</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>106.75000000000001</v>
+        <v>146.75</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.35">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
@@ -2889,27 +2889,27 @@
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="7"/>
@@ -2988,42 +2988,42 @@
       </c>
       <c r="V36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="W36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="X36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="Y36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="AB36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>386.65000000000003</v>
+        <v>249.28750000000002</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>40.35</v>
+        <v>272.36250000000001</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>427.00000000000006</v>
+        <v>582</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="U37" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="V37" s="3">
         <f t="shared" si="8"/>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>35.35</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
@@ -3213,27 +3213,27 @@
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>60.35</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3242,7 +3242,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>427.00000000000011</v>
+        <v>582.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
@@ -3286,19 +3286,19 @@
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>60.7</v>
+        <v>75.7</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>100.7</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>80.7</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>80.7</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3307,7 +3307,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>426.99999999999994</v>
+        <v>582</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>426.99999999999994</v>
+        <v>582</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>

--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aubrey\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA942A14-3508-428F-843A-55BB6FA501B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8CEA4-6CF5-4D2A-860C-81E1538E96F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1350,27 +1352,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.875" style="2"/>
-    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.875" style="2"/>
-    <col min="29" max="32" width="10.875" style="3"/>
-    <col min="33" max="16384" width="10.875" style="2"/>
+    <col min="5" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="11.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="32" width="10.83203125" style="3"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1425,10 +1427,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1471,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1520,12 +1522,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E17" s="23" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>162.79999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E18" s="22" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1603,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="24">
         <f>SUM(M35:V37)</f>
-        <v>202.8</v>
+        <v>282.8</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>48</v>
@@ -1610,10 +1612,10 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="25">
         <f>SUM(W35:Z37)</f>
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+        <v>161.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="29" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
     </row>
-    <row r="22" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="31"/>
       <c r="D22" s="31" t="s">
         <v>29</v>
@@ -1820,7 +1822,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="29" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>3</v>
@@ -1984,41 +1986,41 @@
         <v>3</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>86.487500000000011</v>
+        <v>50.875</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>30.262500000000003</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>116.75000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156.75000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S25" s="14" t="s">
         <v>3</v>
@@ -2074,41 +2076,41 @@
         <v>3</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>86.487500000000011</v>
+        <v>50.875</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>30.262500000000003</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>116.75000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156.75000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2161,44 +2163,44 @@
         <v>12</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>66.137500000000003</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>141.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S27" s="14" t="s">
         <v>3</v>
@@ -2254,41 +2256,41 @@
         <v>3</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>91.575000000000003</v>
+        <v>55.962500000000006</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>20.175000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>111.75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+        <v>151.75000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,10 +2812,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +2877,7 @@
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
@@ -2883,34 +2885,34 @@
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>5.0875000000000004</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -2970,7 +2972,7 @@
       </c>
       <c r="R36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="S36" s="3">
         <f t="shared" si="7"/>
@@ -2978,7 +2980,7 @@
       </c>
       <c r="T36" s="3">
         <f t="shared" si="7"/>
-        <v>30.262500000000003</v>
+        <v>40.35</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="7"/>
@@ -2986,48 +2988,48 @@
       </c>
       <c r="V36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="W36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="X36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="Y36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="AB36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>366.3</v>
+        <v>223.85</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
-        <v>80.7</v>
+        <v>322.8</v>
       </c>
       <c r="AE36" s="5">
         <f>SUM(AE24:AE34)</f>
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>447</v>
+        <v>607.00000000000011</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3099,7 +3101,7 @@
       </c>
       <c r="U37" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="V37" s="3">
         <f t="shared" si="8"/>
@@ -3122,23 +3124,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3199,7 +3201,7 @@
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>35.35</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
@@ -3207,31 +3209,31 @@
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>35.35</v>
+        <v>40.35</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>60.35</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3240,14 +3242,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>447.00000000000011</v>
+        <v>607.00000000000011</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3280,23 +3282,23 @@
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>50.7</v>
+        <v>65.7</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>70.7</v>
+        <v>75.7</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>100.7</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>80.7</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>80.7</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3305,19 +3307,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>446.99999999999994</v>
+        <v>607</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>446.99999999999994</v>
+        <v>607</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>
